--- a/spreadsheet/War.xlsx
+++ b/spreadsheet/War.xlsx
@@ -1679,29 +1679,29 @@
       <c r="A3" s="6" t="n"/>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>Second Empire</t>
+          <t>Sea Country</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>The United Empire of ZahAharon</t>
+          <t>ArkboooM</t>
         </is>
       </c>
       <c r="D3" s="6" t="n"/>
       <c r="E3" s="7" t="n"/>
       <c r="F3" s="8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="9" t="n"/>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t>42079</t>
+          <t>62503</t>
         </is>
       </c>
       <c r="I3" s="8" t="n"/>
       <c r="J3" s="6" t="n"/>
       <c r="K3" s="12" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L3" s="12" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="O3" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P3" s="6" t="n"/>
@@ -1841,205 +1841,61 @@
     </row>
     <row r="6" ht="13" customHeight="1">
       <c r="A6" s="14" t="n"/>
-      <c r="B6" s="14" t="inlineStr">
-        <is>
-          <t>Al Sahina</t>
-        </is>
-      </c>
-      <c r="C6" s="14" t="inlineStr">
-        <is>
-          <t>Carthago</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="n">
-        <v>36</v>
-      </c>
-      <c r="E6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H6" s="14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" s="27" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K6" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="L6" s="14" t="inlineStr">
-        <is>
-          <t>151947</t>
-        </is>
-      </c>
-      <c r="M6" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N6" s="14" t="inlineStr">
-        <is>
-          <t>900</t>
-        </is>
-      </c>
-      <c r="O6" s="14" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+      <c r="B6" s="14" t="n"/>
+      <c r="C6" s="14" t="n"/>
+      <c r="D6" s="14" t="n"/>
+      <c r="E6" s="14" t="n"/>
+      <c r="F6" s="19" t="n"/>
+      <c r="G6" s="26" t="n"/>
+      <c r="H6" s="14" t="n"/>
+      <c r="I6" s="14" t="n"/>
+      <c r="J6" s="27" t="n"/>
+      <c r="K6" s="21" t="n"/>
+      <c r="L6" s="14" t="n"/>
+      <c r="M6" s="14" t="n"/>
+      <c r="N6" s="14" t="n"/>
+      <c r="O6" s="14" t="n"/>
       <c r="P6" s="34" t="n"/>
       <c r="Q6" s="34" t="n"/>
       <c r="R6" s="34" t="n"/>
     </row>
     <row r="7" ht="13" customHeight="1">
       <c r="A7" s="14" t="n"/>
-      <c r="B7" s="14" t="inlineStr">
-        <is>
-          <t>Thenaar</t>
-        </is>
-      </c>
-      <c r="C7" s="14" t="inlineStr">
-        <is>
-          <t>Order of the White Rose</t>
-        </is>
-      </c>
-      <c r="D7" s="14" t="n">
-        <v>45</v>
-      </c>
-      <c r="E7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H7" s="14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" s="14" t="n">
-        <v>42</v>
-      </c>
-      <c r="J7" s="27" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K7" s="21" t="n">
-        <v>11</v>
-      </c>
-      <c r="L7" s="14" t="inlineStr">
-        <is>
-          <t>165000</t>
-        </is>
-      </c>
-      <c r="M7" s="14" t="inlineStr">
-        <is>
-          <t>3240</t>
-        </is>
-      </c>
-      <c r="N7" s="14" t="inlineStr">
-        <is>
-          <t>825</t>
-        </is>
-      </c>
-      <c r="O7" s="14" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="P7" s="34" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="B7" s="14" t="n"/>
+      <c r="C7" s="14" t="n"/>
+      <c r="D7" s="14" t="n"/>
+      <c r="E7" s="14" t="n"/>
+      <c r="F7" s="19" t="n"/>
+      <c r="G7" s="26" t="n"/>
+      <c r="H7" s="14" t="n"/>
+      <c r="I7" s="14" t="n"/>
+      <c r="J7" s="27" t="n"/>
+      <c r="K7" s="21" t="n"/>
+      <c r="L7" s="14" t="n"/>
+      <c r="M7" s="14" t="n"/>
+      <c r="N7" s="14" t="n"/>
+      <c r="O7" s="14" t="n"/>
+      <c r="P7" s="34" t="n"/>
       <c r="Q7" s="14" t="n"/>
-      <c r="R7" s="34" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="R7" s="34" t="n"/>
     </row>
     <row r="8" ht="13" customHeight="1" thickBot="1">
       <c r="A8" s="14" t="n"/>
-      <c r="B8" s="14" t="inlineStr">
-        <is>
-          <t>Drizzt</t>
-        </is>
-      </c>
-      <c r="C8" s="14" t="inlineStr">
-        <is>
-          <t>Error 404</t>
-        </is>
-      </c>
-      <c r="D8" s="14" t="n">
-        <v>56</v>
-      </c>
-      <c r="E8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H8" s="14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" s="14" t="n">
-        <v>80</v>
-      </c>
-      <c r="J8" s="27" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K8" s="21" t="n">
-        <v>11</v>
-      </c>
-      <c r="L8" s="14" t="inlineStr">
-        <is>
-          <t>164884</t>
-        </is>
-      </c>
-      <c r="M8" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" s="14" t="inlineStr">
-        <is>
-          <t>825</t>
-        </is>
-      </c>
-      <c r="O8" s="14" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="P8" s="17" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="B8" s="14" t="n"/>
+      <c r="C8" s="14" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="E8" s="14" t="n"/>
+      <c r="F8" s="19" t="n"/>
+      <c r="G8" s="26" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="I8" s="14" t="n"/>
+      <c r="J8" s="27" t="n"/>
+      <c r="K8" s="21" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="14" t="n"/>
+      <c r="N8" s="14" t="n"/>
+      <c r="O8" s="14" t="n"/>
+      <c r="P8" s="17" t="n"/>
       <c r="Q8" s="34" t="n"/>
       <c r="R8" s="17" t="n"/>
     </row>
@@ -2137,103 +1993,355 @@
     </row>
     <row r="10" ht="13" customHeight="1">
       <c r="A10" s="14" t="n"/>
-      <c r="B10" s="14" t="n"/>
-      <c r="C10" s="14" t="n"/>
-      <c r="D10" s="14" t="n"/>
-      <c r="E10" s="14" t="n"/>
-      <c r="F10" s="19" t="n"/>
-      <c r="G10" s="26" t="n"/>
-      <c r="H10" s="14" t="n"/>
-      <c r="I10" s="18" t="n"/>
-      <c r="J10" s="27" t="n"/>
-      <c r="K10" s="21" t="n"/>
-      <c r="L10" s="14" t="n"/>
-      <c r="M10" s="14" t="n"/>
-      <c r="N10" s="14" t="n"/>
-      <c r="O10" s="16" t="n"/>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>Douglas MacArthur</t>
+        </is>
+      </c>
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t>Camelot</t>
+        </is>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>39</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>44</v>
+      </c>
+      <c r="I10" s="18" t="n">
+        <v>100</v>
+      </c>
+      <c r="J10" s="27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K10" s="21" t="n">
+        <v>21</v>
+      </c>
+      <c r="L10" s="14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="14" t="inlineStr">
+        <is>
+          <t>1575</t>
+        </is>
+      </c>
+      <c r="O10" s="16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P10" s="35" t="n"/>
       <c r="Q10" s="15" t="n"/>
       <c r="R10" s="15" t="n"/>
     </row>
     <row r="11" ht="13" customHeight="1">
       <c r="A11" s="14" t="n"/>
-      <c r="B11" s="14" t="n"/>
-      <c r="C11" s="14" t="n"/>
-      <c r="D11" s="14" t="n"/>
-      <c r="E11" s="14" t="n"/>
-      <c r="F11" s="19" t="n"/>
-      <c r="G11" s="26" t="n"/>
-      <c r="H11" s="14" t="n"/>
-      <c r="I11" s="18" t="n"/>
-      <c r="J11" s="27" t="n"/>
-      <c r="K11" s="21" t="n"/>
-      <c r="L11" s="14" t="n"/>
-      <c r="M11" s="14" t="n"/>
-      <c r="N11" s="14" t="n"/>
-      <c r="O11" s="14" t="n"/>
-      <c r="P11" s="34" t="n"/>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>Tamasith</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>Carthago</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>42</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H11" s="14" t="n">
+        <v>75</v>
+      </c>
+      <c r="I11" s="18" t="n">
+        <v>34</v>
+      </c>
+      <c r="J11" s="27" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K11" s="21" t="n">
+        <v>28</v>
+      </c>
+      <c r="L11" s="14" t="inlineStr">
+        <is>
+          <t>61530</t>
+        </is>
+      </c>
+      <c r="M11" s="14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="14" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="O11" s="14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P11" s="34" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="Q11" s="34" t="n"/>
-      <c r="R11" s="35" t="n"/>
+      <c r="R11" s="35" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="13" customHeight="1">
       <c r="A12" s="14" t="n"/>
-      <c r="B12" s="14" t="n"/>
-      <c r="C12" s="14" t="n"/>
-      <c r="D12" s="14" t="n"/>
-      <c r="E12" s="14" t="n"/>
-      <c r="F12" s="19" t="n"/>
-      <c r="G12" s="26" t="n"/>
-      <c r="H12" s="14" t="n"/>
-      <c r="I12" s="18" t="n"/>
-      <c r="J12" s="27" t="n"/>
-      <c r="K12" s="21" t="n"/>
-      <c r="L12" s="14" t="n"/>
-      <c r="M12" s="14" t="n"/>
-      <c r="N12" s="14" t="n"/>
-      <c r="O12" s="14" t="n"/>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>Ragnarok8085</t>
+        </is>
+      </c>
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>Carthago</t>
+        </is>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>42</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H12" s="14" t="n">
+        <v>57</v>
+      </c>
+      <c r="I12" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" s="27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K12" s="21" t="n">
+        <v>22</v>
+      </c>
+      <c r="L12" s="14" t="inlineStr">
+        <is>
+          <t>242000</t>
+        </is>
+      </c>
+      <c r="M12" s="14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" s="14" t="inlineStr">
+        <is>
+          <t>1650</t>
+        </is>
+      </c>
+      <c r="O12" s="14" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
       <c r="P12" s="35" t="n"/>
       <c r="Q12" s="34" t="n"/>
-      <c r="R12" s="34" t="n"/>
+      <c r="R12" s="34" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="13" customHeight="1">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="14" t="n"/>
-      <c r="C13" s="14" t="n"/>
-      <c r="D13" s="14" t="n"/>
-      <c r="E13" s="14" t="n"/>
-      <c r="F13" s="19" t="n"/>
-      <c r="G13" s="26" t="n"/>
-      <c r="H13" s="14" t="n"/>
-      <c r="I13" s="18" t="n"/>
-      <c r="J13" s="27" t="n"/>
-      <c r="K13" s="21" t="n"/>
-      <c r="L13" s="14" t="n"/>
-      <c r="M13" s="14" t="n"/>
-      <c r="N13" s="14" t="n"/>
-      <c r="O13" s="14" t="n"/>
-      <c r="P13" s="34" t="n"/>
-      <c r="Q13" s="41" t="n"/>
-      <c r="R13" s="34" t="n"/>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>Strett</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>Carthago</t>
+        </is>
+      </c>
+      <c r="D13" s="14" t="n">
+        <v>42</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="14" t="n">
+        <v>57</v>
+      </c>
+      <c r="I13" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="J13" s="27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K13" s="21" t="n">
+        <v>21</v>
+      </c>
+      <c r="L13" s="14" t="inlineStr">
+        <is>
+          <t>22900</t>
+        </is>
+      </c>
+      <c r="M13" s="14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="14" t="inlineStr">
+        <is>
+          <t>1575</t>
+        </is>
+      </c>
+      <c r="O13" s="14" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="P13" s="34" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="Q13" s="41" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="R13" s="34" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="n"/>
-      <c r="B14" s="12" t="n"/>
-      <c r="C14" s="12" t="n"/>
-      <c r="D14" s="12" t="n"/>
-      <c r="E14" s="12" t="n"/>
-      <c r="F14" s="20" t="n"/>
-      <c r="G14" s="30" t="n"/>
-      <c r="H14" s="31" t="n"/>
-      <c r="I14" s="32" t="n"/>
-      <c r="J14" s="33" t="n"/>
-      <c r="K14" s="22" t="n"/>
-      <c r="L14" s="12" t="n"/>
-      <c r="M14" s="12" t="n"/>
-      <c r="N14" s="12" t="n"/>
-      <c r="O14" s="12" t="n"/>
-      <c r="P14" s="36" t="n"/>
+      <c r="B14" s="12" t="inlineStr">
+        <is>
+          <t>Germania</t>
+        </is>
+      </c>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>Carthago</t>
+        </is>
+      </c>
+      <c r="D14" s="12" t="n">
+        <v>43</v>
+      </c>
+      <c r="E14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H14" s="31" t="n">
+        <v>57</v>
+      </c>
+      <c r="I14" s="32" t="n">
+        <v>34</v>
+      </c>
+      <c r="J14" s="33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K14" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="L14" s="12" t="inlineStr">
+        <is>
+          <t>300000</t>
+        </is>
+      </c>
+      <c r="M14" s="12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="O14" s="12" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="P14" s="36" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="Q14" s="36" t="n"/>
-      <c r="R14" s="37" t="n"/>
+      <c r="R14" s="37" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="13" customHeight="1" thickTop="1">
       <c r="A15" s="1" t="n"/>

--- a/spreadsheet/War.xlsx
+++ b/spreadsheet/War.xlsx
@@ -1679,29 +1679,29 @@
       <c r="A3" s="6" t="n"/>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>Sea Country</t>
+          <t>Piglantia</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>ArkboooM</t>
+          <t>Carthago</t>
         </is>
       </c>
       <c r="D3" s="6" t="n"/>
       <c r="E3" s="7" t="n"/>
       <c r="F3" s="8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3" s="9" t="n"/>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t>62503</t>
+          <t>48730</t>
         </is>
       </c>
       <c r="I3" s="8" t="n"/>
       <c r="J3" s="6" t="n"/>
       <c r="K3" s="12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L3" s="12" t="inlineStr">
         <is>
@@ -1715,12 +1715,12 @@
       </c>
       <c r="N3" s="12" t="inlineStr">
         <is>
+          <t>1875</t>
+        </is>
+      </c>
+      <c r="O3" s="10" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="O3" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="P3" s="6" t="n"/>
@@ -1993,355 +1993,103 @@
     </row>
     <row r="10" ht="13" customHeight="1">
       <c r="A10" s="14" t="n"/>
-      <c r="B10" s="14" t="inlineStr">
-        <is>
-          <t>Douglas MacArthur</t>
-        </is>
-      </c>
-      <c r="C10" s="14" t="inlineStr">
-        <is>
-          <t>Camelot</t>
-        </is>
-      </c>
-      <c r="D10" s="14" t="n">
-        <v>39</v>
-      </c>
-      <c r="E10" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="26" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H10" s="14" t="n">
-        <v>44</v>
-      </c>
-      <c r="I10" s="18" t="n">
-        <v>100</v>
-      </c>
-      <c r="J10" s="27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K10" s="21" t="n">
-        <v>21</v>
-      </c>
-      <c r="L10" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" s="14" t="inlineStr">
-        <is>
-          <t>1575</t>
-        </is>
-      </c>
-      <c r="O10" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="14" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="E10" s="14" t="n"/>
+      <c r="F10" s="19" t="n"/>
+      <c r="G10" s="26" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="I10" s="18" t="n"/>
+      <c r="J10" s="27" t="n"/>
+      <c r="K10" s="21" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="14" t="n"/>
+      <c r="N10" s="14" t="n"/>
+      <c r="O10" s="16" t="n"/>
       <c r="P10" s="35" t="n"/>
       <c r="Q10" s="15" t="n"/>
       <c r="R10" s="15" t="n"/>
     </row>
     <row r="11" ht="13" customHeight="1">
       <c r="A11" s="14" t="n"/>
-      <c r="B11" s="14" t="inlineStr">
-        <is>
-          <t>Tamasith</t>
-        </is>
-      </c>
-      <c r="C11" s="14" t="inlineStr">
-        <is>
-          <t>Carthago</t>
-        </is>
-      </c>
-      <c r="D11" s="14" t="n">
-        <v>42</v>
-      </c>
-      <c r="E11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H11" s="14" t="n">
-        <v>75</v>
-      </c>
-      <c r="I11" s="18" t="n">
-        <v>34</v>
-      </c>
-      <c r="J11" s="27" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K11" s="21" t="n">
-        <v>28</v>
-      </c>
-      <c r="L11" s="14" t="inlineStr">
-        <is>
-          <t>61530</t>
-        </is>
-      </c>
-      <c r="M11" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" s="14" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="O11" s="14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P11" s="34" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="14" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="19" t="n"/>
+      <c r="G11" s="26" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="18" t="n"/>
+      <c r="J11" s="27" t="n"/>
+      <c r="K11" s="21" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="14" t="n"/>
+      <c r="N11" s="14" t="n"/>
+      <c r="O11" s="14" t="n"/>
+      <c r="P11" s="34" t="n"/>
       <c r="Q11" s="34" t="n"/>
-      <c r="R11" s="35" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="R11" s="35" t="n"/>
     </row>
     <row r="12" ht="13" customHeight="1">
       <c r="A12" s="14" t="n"/>
-      <c r="B12" s="14" t="inlineStr">
-        <is>
-          <t>Ragnarok8085</t>
-        </is>
-      </c>
-      <c r="C12" s="14" t="inlineStr">
-        <is>
-          <t>Carthago</t>
-        </is>
-      </c>
-      <c r="D12" s="14" t="n">
-        <v>42</v>
-      </c>
-      <c r="E12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H12" s="14" t="n">
-        <v>57</v>
-      </c>
-      <c r="I12" s="18" t="n">
-        <v>30</v>
-      </c>
-      <c r="J12" s="27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K12" s="21" t="n">
-        <v>22</v>
-      </c>
-      <c r="L12" s="14" t="inlineStr">
-        <is>
-          <t>242000</t>
-        </is>
-      </c>
-      <c r="M12" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" s="14" t="inlineStr">
-        <is>
-          <t>1650</t>
-        </is>
-      </c>
-      <c r="O12" s="14" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="B12" s="14" t="n"/>
+      <c r="C12" s="14" t="n"/>
+      <c r="D12" s="14" t="n"/>
+      <c r="E12" s="14" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="26" t="n"/>
+      <c r="H12" s="14" t="n"/>
+      <c r="I12" s="18" t="n"/>
+      <c r="J12" s="27" t="n"/>
+      <c r="K12" s="21" t="n"/>
+      <c r="L12" s="14" t="n"/>
+      <c r="M12" s="14" t="n"/>
+      <c r="N12" s="14" t="n"/>
+      <c r="O12" s="14" t="n"/>
       <c r="P12" s="35" t="n"/>
       <c r="Q12" s="34" t="n"/>
-      <c r="R12" s="34" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="R12" s="34" t="n"/>
     </row>
     <row r="13" ht="13" customHeight="1">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="14" t="inlineStr">
-        <is>
-          <t>Strett</t>
-        </is>
-      </c>
-      <c r="C13" s="14" t="inlineStr">
-        <is>
-          <t>Carthago</t>
-        </is>
-      </c>
-      <c r="D13" s="14" t="n">
-        <v>42</v>
-      </c>
-      <c r="E13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H13" s="14" t="n">
-        <v>57</v>
-      </c>
-      <c r="I13" s="18" t="n">
-        <v>30</v>
-      </c>
-      <c r="J13" s="27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K13" s="21" t="n">
-        <v>21</v>
-      </c>
-      <c r="L13" s="14" t="inlineStr">
-        <is>
-          <t>22900</t>
-        </is>
-      </c>
-      <c r="M13" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" s="14" t="inlineStr">
-        <is>
-          <t>1575</t>
-        </is>
-      </c>
-      <c r="O13" s="14" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="P13" s="34" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="Q13" s="41" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="R13" s="34" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="B13" s="14" t="n"/>
+      <c r="C13" s="14" t="n"/>
+      <c r="D13" s="14" t="n"/>
+      <c r="E13" s="14" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="26" t="n"/>
+      <c r="H13" s="14" t="n"/>
+      <c r="I13" s="18" t="n"/>
+      <c r="J13" s="27" t="n"/>
+      <c r="K13" s="21" t="n"/>
+      <c r="L13" s="14" t="n"/>
+      <c r="M13" s="14" t="n"/>
+      <c r="N13" s="14" t="n"/>
+      <c r="O13" s="14" t="n"/>
+      <c r="P13" s="34" t="n"/>
+      <c r="Q13" s="41" t="n"/>
+      <c r="R13" s="34" t="n"/>
     </row>
     <row r="14" ht="13.5" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="n"/>
-      <c r="B14" s="12" t="inlineStr">
-        <is>
-          <t>Germania</t>
-        </is>
-      </c>
-      <c r="C14" s="12" t="inlineStr">
-        <is>
-          <t>Carthago</t>
-        </is>
-      </c>
-      <c r="D14" s="12" t="n">
-        <v>43</v>
-      </c>
-      <c r="E14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H14" s="31" t="n">
-        <v>57</v>
-      </c>
-      <c r="I14" s="32" t="n">
-        <v>34</v>
-      </c>
-      <c r="J14" s="33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K14" s="22" t="n">
-        <v>20</v>
-      </c>
-      <c r="L14" s="12" t="inlineStr">
-        <is>
-          <t>300000</t>
-        </is>
-      </c>
-      <c r="M14" s="12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N14" s="12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="O14" s="12" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="P14" s="36" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="B14" s="12" t="n"/>
+      <c r="C14" s="12" t="n"/>
+      <c r="D14" s="12" t="n"/>
+      <c r="E14" s="12" t="n"/>
+      <c r="F14" s="20" t="n"/>
+      <c r="G14" s="30" t="n"/>
+      <c r="H14" s="31" t="n"/>
+      <c r="I14" s="32" t="n"/>
+      <c r="J14" s="33" t="n"/>
+      <c r="K14" s="22" t="n"/>
+      <c r="L14" s="12" t="n"/>
+      <c r="M14" s="12" t="n"/>
+      <c r="N14" s="12" t="n"/>
+      <c r="O14" s="12" t="n"/>
+      <c r="P14" s="36" t="n"/>
       <c r="Q14" s="36" t="n"/>
-      <c r="R14" s="37" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="R14" s="37" t="n"/>
     </row>
     <row r="15" ht="13" customHeight="1" thickTop="1">
       <c r="A15" s="1" t="n"/>

--- a/spreadsheet/War.xlsx
+++ b/spreadsheet/War.xlsx
@@ -1269,6 +1269,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1679,23 +1747,23 @@
       <c r="A3" s="6" t="n"/>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>Piglantia</t>
+          <t>Black lives matter</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>Carthago</t>
+          <t>Arrgh</t>
         </is>
       </c>
       <c r="D3" s="6" t="n"/>
       <c r="E3" s="7" t="n"/>
       <c r="F3" s="8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="9" t="n"/>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t>48730</t>
+          <t>131157</t>
         </is>
       </c>
       <c r="I3" s="8" t="n"/>
@@ -1705,22 +1773,22 @@
       </c>
       <c r="L3" s="12" t="inlineStr">
         <is>
+          <t>86936</t>
+        </is>
+      </c>
+      <c r="M3" s="12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" s="12" t="inlineStr">
+      <c r="N3" s="12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N3" s="12" t="inlineStr">
-        <is>
-          <t>1875</t>
-        </is>
-      </c>
       <c r="O3" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="P3" s="6" t="n"/>
@@ -1841,23 +1909,71 @@
     </row>
     <row r="6" ht="13" customHeight="1">
       <c r="A6" s="14" t="n"/>
-      <c r="B6" s="14" t="n"/>
-      <c r="C6" s="14" t="n"/>
-      <c r="D6" s="14" t="n"/>
-      <c r="E6" s="14" t="n"/>
-      <c r="F6" s="19" t="n"/>
-      <c r="G6" s="26" t="n"/>
-      <c r="H6" s="14" t="n"/>
-      <c r="I6" s="14" t="n"/>
-      <c r="J6" s="27" t="n"/>
-      <c r="K6" s="21" t="n"/>
-      <c r="L6" s="14" t="n"/>
-      <c r="M6" s="14" t="n"/>
-      <c r="N6" s="14" t="n"/>
-      <c r="O6" s="14" t="n"/>
+      <c r="B6" s="14" t="inlineStr">
+        <is>
+          <t>Achilian</t>
+        </is>
+      </c>
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>The United Armies</t>
+        </is>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>44</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>64</v>
+      </c>
+      <c r="I6" s="14" t="n">
+        <v>61</v>
+      </c>
+      <c r="J6" s="27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K6" s="21" t="n">
+        <v>16</v>
+      </c>
+      <c r="L6" s="14" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="M6" s="14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N6" s="14" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="O6" s="14" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
       <c r="P6" s="34" t="n"/>
       <c r="Q6" s="34" t="n"/>
-      <c r="R6" s="34" t="n"/>
+      <c r="R6" s="34" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="13" customHeight="1">
       <c r="A7" s="14" t="n"/>
@@ -1993,103 +2109,351 @@
     </row>
     <row r="10" ht="13" customHeight="1">
       <c r="A10" s="14" t="n"/>
-      <c r="B10" s="14" t="n"/>
-      <c r="C10" s="14" t="n"/>
-      <c r="D10" s="14" t="n"/>
-      <c r="E10" s="14" t="n"/>
-      <c r="F10" s="19" t="n"/>
-      <c r="G10" s="26" t="n"/>
-      <c r="H10" s="14" t="n"/>
-      <c r="I10" s="18" t="n"/>
-      <c r="J10" s="27" t="n"/>
-      <c r="K10" s="21" t="n"/>
-      <c r="L10" s="14" t="n"/>
-      <c r="M10" s="14" t="n"/>
-      <c r="N10" s="14" t="n"/>
-      <c r="O10" s="16" t="n"/>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>Vorac1ty</t>
+        </is>
+      </c>
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t>The Immortals</t>
+        </is>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>80</v>
+      </c>
+      <c r="I10" s="18" t="n">
+        <v>76</v>
+      </c>
+      <c r="J10" s="27" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K10" s="21" t="n">
+        <v>20</v>
+      </c>
+      <c r="L10" s="14" t="inlineStr">
+        <is>
+          <t>175983</t>
+        </is>
+      </c>
+      <c r="M10" s="14" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="N10" s="14" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="O10" s="16" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
       <c r="P10" s="35" t="n"/>
-      <c r="Q10" s="15" t="n"/>
+      <c r="Q10" s="15" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="R10" s="15" t="n"/>
     </row>
     <row r="11" ht="13" customHeight="1">
       <c r="A11" s="14" t="n"/>
-      <c r="B11" s="14" t="n"/>
-      <c r="C11" s="14" t="n"/>
-      <c r="D11" s="14" t="n"/>
-      <c r="E11" s="14" t="n"/>
-      <c r="F11" s="19" t="n"/>
-      <c r="G11" s="26" t="n"/>
-      <c r="H11" s="14" t="n"/>
-      <c r="I11" s="18" t="n"/>
-      <c r="J11" s="27" t="n"/>
-      <c r="K11" s="21" t="n"/>
-      <c r="L11" s="14" t="n"/>
-      <c r="M11" s="14" t="n"/>
-      <c r="N11" s="14" t="n"/>
-      <c r="O11" s="14" t="n"/>
-      <c r="P11" s="34" t="n"/>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>Daveth</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>The 4th McCoppin Scrapyard</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>39</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" s="14" t="n">
+        <v>27</v>
+      </c>
+      <c r="I11" s="18" t="n">
+        <v>32</v>
+      </c>
+      <c r="J11" s="27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K11" s="21" t="n">
+        <v>21</v>
+      </c>
+      <c r="L11" s="14" t="inlineStr">
+        <is>
+          <t>284205</t>
+        </is>
+      </c>
+      <c r="M11" s="14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="14" t="inlineStr">
+        <is>
+          <t>1575</t>
+        </is>
+      </c>
+      <c r="O11" s="14" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="P11" s="34" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="Q11" s="34" t="n"/>
-      <c r="R11" s="35" t="n"/>
+      <c r="R11" s="35" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="13" customHeight="1">
       <c r="A12" s="14" t="n"/>
-      <c r="B12" s="14" t="n"/>
-      <c r="C12" s="14" t="n"/>
-      <c r="D12" s="14" t="n"/>
-      <c r="E12" s="14" t="n"/>
-      <c r="F12" s="19" t="n"/>
-      <c r="G12" s="26" t="n"/>
-      <c r="H12" s="14" t="n"/>
-      <c r="I12" s="18" t="n"/>
-      <c r="J12" s="27" t="n"/>
-      <c r="K12" s="21" t="n"/>
-      <c r="L12" s="14" t="n"/>
-      <c r="M12" s="14" t="n"/>
-      <c r="N12" s="14" t="n"/>
-      <c r="O12" s="14" t="n"/>
-      <c r="P12" s="35" t="n"/>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>Lord Frostsword</t>
+        </is>
+      </c>
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>Camelot</t>
+        </is>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>47</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H12" s="14" t="n">
+        <v>56</v>
+      </c>
+      <c r="I12" s="18" t="n">
+        <v>100</v>
+      </c>
+      <c r="J12" s="27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" s="21" t="n">
+        <v>26</v>
+      </c>
+      <c r="L12" s="14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M12" s="14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" s="14" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="O12" s="14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" s="35" t="inlineStr">
+        <is>
+          <t>✖</t>
+        </is>
+      </c>
       <c r="Q12" s="34" t="n"/>
       <c r="R12" s="34" t="n"/>
     </row>
     <row r="13" ht="13" customHeight="1">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="14" t="n"/>
-      <c r="C13" s="14" t="n"/>
-      <c r="D13" s="14" t="n"/>
-      <c r="E13" s="14" t="n"/>
-      <c r="F13" s="19" t="n"/>
-      <c r="G13" s="26" t="n"/>
-      <c r="H13" s="14" t="n"/>
-      <c r="I13" s="18" t="n"/>
-      <c r="J13" s="27" t="n"/>
-      <c r="K13" s="21" t="n"/>
-      <c r="L13" s="14" t="n"/>
-      <c r="M13" s="14" t="n"/>
-      <c r="N13" s="14" t="n"/>
-      <c r="O13" s="14" t="n"/>
-      <c r="P13" s="34" t="n"/>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>zeekeal</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>Horsemen</t>
+        </is>
+      </c>
+      <c r="D13" s="14" t="n">
+        <v>48</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H13" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="I13" s="18" t="n">
+        <v>100</v>
+      </c>
+      <c r="J13" s="27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" s="21" t="n">
+        <v>28</v>
+      </c>
+      <c r="L13" s="14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" s="14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" s="34" t="inlineStr">
+        <is>
+          <t>✖</t>
+        </is>
+      </c>
       <c r="Q13" s="41" t="n"/>
       <c r="R13" s="34" t="n"/>
     </row>
     <row r="14" ht="13.5" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="n"/>
-      <c r="B14" s="12" t="n"/>
-      <c r="C14" s="12" t="n"/>
-      <c r="D14" s="12" t="n"/>
-      <c r="E14" s="12" t="n"/>
-      <c r="F14" s="20" t="n"/>
-      <c r="G14" s="30" t="n"/>
-      <c r="H14" s="31" t="n"/>
-      <c r="I14" s="32" t="n"/>
-      <c r="J14" s="33" t="n"/>
-      <c r="K14" s="22" t="n"/>
-      <c r="L14" s="12" t="n"/>
-      <c r="M14" s="12" t="n"/>
-      <c r="N14" s="12" t="n"/>
-      <c r="O14" s="12" t="n"/>
-      <c r="P14" s="36" t="n"/>
+      <c r="B14" s="12" t="inlineStr">
+        <is>
+          <t>Fee1s</t>
+        </is>
+      </c>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>Camelot</t>
+        </is>
+      </c>
+      <c r="D14" s="12" t="n">
+        <v>58</v>
+      </c>
+      <c r="E14" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H14" s="31" t="n">
+        <v>76</v>
+      </c>
+      <c r="I14" s="32" t="n">
+        <v>100</v>
+      </c>
+      <c r="J14" s="33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="L14" s="12" t="inlineStr">
+        <is>
+          <t>15906</t>
+        </is>
+      </c>
+      <c r="M14" s="12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="12" t="inlineStr">
+        <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="O14" s="12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P14" s="36" t="inlineStr">
+        <is>
+          <t>✖</t>
+        </is>
+      </c>
       <c r="Q14" s="36" t="n"/>
-      <c r="R14" s="37" t="n"/>
+      <c r="R14" s="37" t="inlineStr">
+        <is>
+          <t>✖</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="13" customHeight="1" thickTop="1">
       <c r="A15" s="1" t="n"/>

--- a/spreadsheet/War.xlsx
+++ b/spreadsheet/War.xlsx
@@ -1747,48 +1747,48 @@
       <c r="A3" s="6" t="n"/>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>Black lives matter</t>
+          <t>Darwinium of Slugs</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>Arrgh</t>
+          <t>Human Over</t>
         </is>
       </c>
       <c r="D3" s="6" t="n"/>
       <c r="E3" s="7" t="n"/>
       <c r="F3" s="8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3" s="9" t="n"/>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t>131157</t>
+          <t>12118</t>
         </is>
       </c>
       <c r="I3" s="8" t="n"/>
       <c r="J3" s="6" t="n"/>
       <c r="K3" s="12" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L3" s="12" t="inlineStr">
         <is>
-          <t>86936</t>
+          <t>546000</t>
         </is>
       </c>
       <c r="M3" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44750</t>
         </is>
       </c>
       <c r="N3" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2760</t>
         </is>
       </c>
       <c r="O3" s="10" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>550</t>
         </is>
       </c>
       <c r="P3" s="6" t="n"/>
@@ -1909,71 +1909,23 @@
     </row>
     <row r="6" ht="13" customHeight="1">
       <c r="A6" s="14" t="n"/>
-      <c r="B6" s="14" t="inlineStr">
-        <is>
-          <t>Achilian</t>
-        </is>
-      </c>
-      <c r="C6" s="14" t="inlineStr">
-        <is>
-          <t>The United Armies</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="n">
-        <v>44</v>
-      </c>
-      <c r="E6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="26" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H6" s="14" t="n">
-        <v>64</v>
-      </c>
-      <c r="I6" s="14" t="n">
-        <v>61</v>
-      </c>
-      <c r="J6" s="27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K6" s="21" t="n">
-        <v>16</v>
-      </c>
-      <c r="L6" s="14" t="inlineStr">
-        <is>
-          <t>240000</t>
-        </is>
-      </c>
-      <c r="M6" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N6" s="14" t="inlineStr">
-        <is>
-          <t>1125</t>
-        </is>
-      </c>
-      <c r="O6" s="14" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
+      <c r="B6" s="14" t="n"/>
+      <c r="C6" s="14" t="n"/>
+      <c r="D6" s="14" t="n"/>
+      <c r="E6" s="14" t="n"/>
+      <c r="F6" s="19" t="n"/>
+      <c r="G6" s="26" t="n"/>
+      <c r="H6" s="14" t="n"/>
+      <c r="I6" s="14" t="n"/>
+      <c r="J6" s="27" t="n"/>
+      <c r="K6" s="21" t="n"/>
+      <c r="L6" s="14" t="n"/>
+      <c r="M6" s="14" t="n"/>
+      <c r="N6" s="14" t="n"/>
+      <c r="O6" s="14" t="n"/>
       <c r="P6" s="34" t="n"/>
       <c r="Q6" s="34" t="n"/>
-      <c r="R6" s="34" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="R6" s="34" t="n"/>
     </row>
     <row r="7" ht="13" customHeight="1">
       <c r="A7" s="14" t="n"/>
@@ -2109,351 +2061,103 @@
     </row>
     <row r="10" ht="13" customHeight="1">
       <c r="A10" s="14" t="n"/>
-      <c r="B10" s="14" t="inlineStr">
-        <is>
-          <t>Vorac1ty</t>
-        </is>
-      </c>
-      <c r="C10" s="14" t="inlineStr">
-        <is>
-          <t>The Immortals</t>
-        </is>
-      </c>
-      <c r="D10" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="E10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="26" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H10" s="14" t="n">
-        <v>80</v>
-      </c>
-      <c r="I10" s="18" t="n">
-        <v>76</v>
-      </c>
-      <c r="J10" s="27" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K10" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="L10" s="14" t="inlineStr">
-        <is>
-          <t>175983</t>
-        </is>
-      </c>
-      <c r="M10" s="14" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="N10" s="14" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="O10" s="16" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="14" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="E10" s="14" t="n"/>
+      <c r="F10" s="19" t="n"/>
+      <c r="G10" s="26" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="I10" s="18" t="n"/>
+      <c r="J10" s="27" t="n"/>
+      <c r="K10" s="21" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="14" t="n"/>
+      <c r="N10" s="14" t="n"/>
+      <c r="O10" s="16" t="n"/>
       <c r="P10" s="35" t="n"/>
-      <c r="Q10" s="15" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="Q10" s="15" t="n"/>
       <c r="R10" s="15" t="n"/>
     </row>
     <row r="11" ht="13" customHeight="1">
       <c r="A11" s="14" t="n"/>
-      <c r="B11" s="14" t="inlineStr">
-        <is>
-          <t>Daveth</t>
-        </is>
-      </c>
-      <c r="C11" s="14" t="inlineStr">
-        <is>
-          <t>The 4th McCoppin Scrapyard</t>
-        </is>
-      </c>
-      <c r="D11" s="14" t="n">
-        <v>39</v>
-      </c>
-      <c r="E11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="26" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H11" s="14" t="n">
-        <v>27</v>
-      </c>
-      <c r="I11" s="18" t="n">
-        <v>32</v>
-      </c>
-      <c r="J11" s="27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K11" s="21" t="n">
-        <v>21</v>
-      </c>
-      <c r="L11" s="14" t="inlineStr">
-        <is>
-          <t>284205</t>
-        </is>
-      </c>
-      <c r="M11" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" s="14" t="inlineStr">
-        <is>
-          <t>1575</t>
-        </is>
-      </c>
-      <c r="O11" s="14" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="P11" s="34" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="14" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="19" t="n"/>
+      <c r="G11" s="26" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="18" t="n"/>
+      <c r="J11" s="27" t="n"/>
+      <c r="K11" s="21" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="14" t="n"/>
+      <c r="N11" s="14" t="n"/>
+      <c r="O11" s="14" t="n"/>
+      <c r="P11" s="34" t="n"/>
       <c r="Q11" s="34" t="n"/>
-      <c r="R11" s="35" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="R11" s="35" t="n"/>
     </row>
     <row r="12" ht="13" customHeight="1">
       <c r="A12" s="14" t="n"/>
-      <c r="B12" s="14" t="inlineStr">
-        <is>
-          <t>Lord Frostsword</t>
-        </is>
-      </c>
-      <c r="C12" s="14" t="inlineStr">
-        <is>
-          <t>Camelot</t>
-        </is>
-      </c>
-      <c r="D12" s="14" t="n">
-        <v>47</v>
-      </c>
-      <c r="E12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="26" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H12" s="14" t="n">
-        <v>56</v>
-      </c>
-      <c r="I12" s="18" t="n">
-        <v>100</v>
-      </c>
-      <c r="J12" s="27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K12" s="21" t="n">
-        <v>26</v>
-      </c>
-      <c r="L12" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" s="14" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="O12" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" s="35" t="inlineStr">
-        <is>
-          <t>✖</t>
-        </is>
-      </c>
+      <c r="B12" s="14" t="n"/>
+      <c r="C12" s="14" t="n"/>
+      <c r="D12" s="14" t="n"/>
+      <c r="E12" s="14" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="26" t="n"/>
+      <c r="H12" s="14" t="n"/>
+      <c r="I12" s="18" t="n"/>
+      <c r="J12" s="27" t="n"/>
+      <c r="K12" s="21" t="n"/>
+      <c r="L12" s="14" t="n"/>
+      <c r="M12" s="14" t="n"/>
+      <c r="N12" s="14" t="n"/>
+      <c r="O12" s="14" t="n"/>
+      <c r="P12" s="35" t="n"/>
       <c r="Q12" s="34" t="n"/>
       <c r="R12" s="34" t="n"/>
     </row>
     <row r="13" ht="13" customHeight="1">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="14" t="inlineStr">
-        <is>
-          <t>zeekeal</t>
-        </is>
-      </c>
-      <c r="C13" s="14" t="inlineStr">
-        <is>
-          <t>Horsemen</t>
-        </is>
-      </c>
-      <c r="D13" s="14" t="n">
-        <v>48</v>
-      </c>
-      <c r="E13" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="26" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H13" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="I13" s="18" t="n">
-        <v>100</v>
-      </c>
-      <c r="J13" s="27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K13" s="21" t="n">
-        <v>28</v>
-      </c>
-      <c r="L13" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M13" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" s="14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" s="34" t="inlineStr">
-        <is>
-          <t>✖</t>
-        </is>
-      </c>
+      <c r="B13" s="14" t="n"/>
+      <c r="C13" s="14" t="n"/>
+      <c r="D13" s="14" t="n"/>
+      <c r="E13" s="14" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="26" t="n"/>
+      <c r="H13" s="14" t="n"/>
+      <c r="I13" s="18" t="n"/>
+      <c r="J13" s="27" t="n"/>
+      <c r="K13" s="21" t="n"/>
+      <c r="L13" s="14" t="n"/>
+      <c r="M13" s="14" t="n"/>
+      <c r="N13" s="14" t="n"/>
+      <c r="O13" s="14" t="n"/>
+      <c r="P13" s="34" t="n"/>
       <c r="Q13" s="41" t="n"/>
       <c r="R13" s="34" t="n"/>
     </row>
     <row r="14" ht="13.5" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="n"/>
-      <c r="B14" s="12" t="inlineStr">
-        <is>
-          <t>Fee1s</t>
-        </is>
-      </c>
-      <c r="C14" s="12" t="inlineStr">
-        <is>
-          <t>Camelot</t>
-        </is>
-      </c>
-      <c r="D14" s="12" t="n">
-        <v>58</v>
-      </c>
-      <c r="E14" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="30" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H14" s="31" t="n">
-        <v>76</v>
-      </c>
-      <c r="I14" s="32" t="n">
-        <v>100</v>
-      </c>
-      <c r="J14" s="33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K14" s="22" t="n">
-        <v>18</v>
-      </c>
-      <c r="L14" s="12" t="inlineStr">
-        <is>
-          <t>15906</t>
-        </is>
-      </c>
-      <c r="M14" s="12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N14" s="12" t="inlineStr">
-        <is>
-          <t>1350</t>
-        </is>
-      </c>
-      <c r="O14" s="12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="P14" s="36" t="inlineStr">
-        <is>
-          <t>✖</t>
-        </is>
-      </c>
+      <c r="B14" s="12" t="n"/>
+      <c r="C14" s="12" t="n"/>
+      <c r="D14" s="12" t="n"/>
+      <c r="E14" s="12" t="n"/>
+      <c r="F14" s="20" t="n"/>
+      <c r="G14" s="30" t="n"/>
+      <c r="H14" s="31" t="n"/>
+      <c r="I14" s="32" t="n"/>
+      <c r="J14" s="33" t="n"/>
+      <c r="K14" s="22" t="n"/>
+      <c r="L14" s="12" t="n"/>
+      <c r="M14" s="12" t="n"/>
+      <c r="N14" s="12" t="n"/>
+      <c r="O14" s="12" t="n"/>
+      <c r="P14" s="36" t="n"/>
       <c r="Q14" s="36" t="n"/>
-      <c r="R14" s="37" t="inlineStr">
-        <is>
-          <t>✖</t>
-        </is>
-      </c>
+      <c r="R14" s="37" t="n"/>
     </row>
     <row r="15" ht="13" customHeight="1" thickTop="1">
       <c r="A15" s="1" t="n"/>

--- a/spreadsheet/War.xlsx
+++ b/spreadsheet/War.xlsx
@@ -1747,48 +1747,48 @@
       <c r="A3" s="6" t="n"/>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>Darwinium of Slugs</t>
+          <t>Pruswick-Saxonburg</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>Human Over</t>
+          <t>Camelot</t>
         </is>
       </c>
       <c r="D3" s="6" t="n"/>
       <c r="E3" s="7" t="n"/>
       <c r="F3" s="8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="9" t="n"/>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t>12118</t>
+          <t>213458</t>
         </is>
       </c>
       <c r="I3" s="8" t="n"/>
       <c r="J3" s="6" t="n"/>
       <c r="K3" s="12" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="L3" s="12" t="inlineStr">
         <is>
-          <t>546000</t>
+          <t>194551</t>
         </is>
       </c>
       <c r="M3" s="12" t="inlineStr">
         <is>
-          <t>44750</t>
+          <t>12451</t>
         </is>
       </c>
       <c r="N3" s="12" t="inlineStr">
         <is>
-          <t>2760</t>
+          <t>995</t>
         </is>
       </c>
       <c r="O3" s="10" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>74</t>
         </is>
       </c>
       <c r="P3" s="6" t="n"/>
@@ -1909,63 +1909,203 @@
     </row>
     <row r="6" ht="13" customHeight="1">
       <c r="A6" s="14" t="n"/>
-      <c r="B6" s="14" t="n"/>
-      <c r="C6" s="14" t="n"/>
-      <c r="D6" s="14" t="n"/>
-      <c r="E6" s="14" t="n"/>
-      <c r="F6" s="19" t="n"/>
-      <c r="G6" s="26" t="n"/>
-      <c r="H6" s="14" t="n"/>
-      <c r="I6" s="14" t="n"/>
-      <c r="J6" s="27" t="n"/>
-      <c r="K6" s="21" t="n"/>
-      <c r="L6" s="14" t="n"/>
-      <c r="M6" s="14" t="n"/>
-      <c r="N6" s="14" t="n"/>
-      <c r="O6" s="14" t="n"/>
+      <c r="B6" s="14" t="inlineStr">
+        <is>
+          <t>Lemon Lord</t>
+        </is>
+      </c>
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>Carthago</t>
+        </is>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>51</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="26" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>94</v>
+      </c>
+      <c r="I6" s="14" t="n">
+        <v>94</v>
+      </c>
+      <c r="J6" s="27" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K6" s="21" t="n">
+        <v>21</v>
+      </c>
+      <c r="L6" s="14" t="inlineStr">
+        <is>
+          <t>315000</t>
+        </is>
+      </c>
+      <c r="M6" s="14" t="inlineStr">
+        <is>
+          <t>25750</t>
+        </is>
+      </c>
+      <c r="N6" s="14" t="inlineStr">
+        <is>
+          <t>1536</t>
+        </is>
+      </c>
+      <c r="O6" s="14" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
       <c r="P6" s="34" t="n"/>
       <c r="Q6" s="34" t="n"/>
       <c r="R6" s="34" t="n"/>
     </row>
     <row r="7" ht="13" customHeight="1">
       <c r="A7" s="14" t="n"/>
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="14" t="n"/>
-      <c r="D7" s="14" t="n"/>
-      <c r="E7" s="14" t="n"/>
-      <c r="F7" s="19" t="n"/>
-      <c r="G7" s="26" t="n"/>
-      <c r="H7" s="14" t="n"/>
-      <c r="I7" s="14" t="n"/>
-      <c r="J7" s="27" t="n"/>
-      <c r="K7" s="21" t="n"/>
-      <c r="L7" s="14" t="n"/>
-      <c r="M7" s="14" t="n"/>
-      <c r="N7" s="14" t="n"/>
-      <c r="O7" s="14" t="n"/>
-      <c r="P7" s="34" t="n"/>
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>My2Lemons</t>
+        </is>
+      </c>
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t>House Stark</t>
+        </is>
+      </c>
+      <c r="D7" s="14" t="n">
+        <v>52</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" s="14" t="n">
+        <v>69</v>
+      </c>
+      <c r="J7" s="27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K7" s="21" t="n">
+        <v>25</v>
+      </c>
+      <c r="L7" s="14" t="inlineStr">
+        <is>
+          <t>366000</t>
+        </is>
+      </c>
+      <c r="M7" s="14" t="inlineStr">
+        <is>
+          <t>31250</t>
+        </is>
+      </c>
+      <c r="N7" s="14" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+      <c r="O7" s="14" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="P7" s="34" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="Q7" s="14" t="n"/>
       <c r="R7" s="34" t="n"/>
     </row>
     <row r="8" ht="13" customHeight="1" thickBot="1">
       <c r="A8" s="14" t="n"/>
-      <c r="B8" s="14" t="n"/>
-      <c r="C8" s="14" t="n"/>
-      <c r="D8" s="14" t="n"/>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="19" t="n"/>
-      <c r="G8" s="26" t="n"/>
-      <c r="H8" s="14" t="n"/>
-      <c r="I8" s="14" t="n"/>
-      <c r="J8" s="27" t="n"/>
-      <c r="K8" s="21" t="n"/>
-      <c r="L8" s="14" t="n"/>
-      <c r="M8" s="14" t="n"/>
-      <c r="N8" s="14" t="n"/>
-      <c r="O8" s="14" t="n"/>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>Suyash Adhikari</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>Swords of Sanghelios</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>54</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" s="14" t="n">
+        <v>72</v>
+      </c>
+      <c r="J8" s="27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K8" s="21" t="n">
+        <v>21</v>
+      </c>
+      <c r="L8" s="14" t="inlineStr">
+        <is>
+          <t>298807</t>
+        </is>
+      </c>
+      <c r="M8" s="14" t="inlineStr">
+        <is>
+          <t>23568</t>
+        </is>
+      </c>
+      <c r="N8" s="14" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="O8" s="14" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
       <c r="P8" s="17" t="n"/>
       <c r="Q8" s="34" t="n"/>
-      <c r="R8" s="17" t="n"/>
+      <c r="R8" s="17" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="30" customHeight="1" thickTop="1">
       <c r="A9" s="2" t="inlineStr">
@@ -2061,43 +2201,143 @@
     </row>
     <row r="10" ht="13" customHeight="1">
       <c r="A10" s="14" t="n"/>
-      <c r="B10" s="14" t="n"/>
-      <c r="C10" s="14" t="n"/>
-      <c r="D10" s="14" t="n"/>
-      <c r="E10" s="14" t="n"/>
-      <c r="F10" s="19" t="n"/>
-      <c r="G10" s="26" t="n"/>
-      <c r="H10" s="14" t="n"/>
-      <c r="I10" s="18" t="n"/>
-      <c r="J10" s="27" t="n"/>
-      <c r="K10" s="21" t="n"/>
-      <c r="L10" s="14" t="n"/>
-      <c r="M10" s="14" t="n"/>
-      <c r="N10" s="14" t="n"/>
-      <c r="O10" s="16" t="n"/>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>Village</t>
+        </is>
+      </c>
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t>House Stark</t>
+        </is>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>51</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>94</v>
+      </c>
+      <c r="I10" s="18" t="n">
+        <v>70</v>
+      </c>
+      <c r="J10" s="27" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="21" t="n">
+        <v>19</v>
+      </c>
+      <c r="L10" s="14" t="inlineStr">
+        <is>
+          <t>279000</t>
+        </is>
+      </c>
+      <c r="M10" s="14" t="inlineStr">
+        <is>
+          <t>23500</t>
+        </is>
+      </c>
+      <c r="N10" s="14" t="inlineStr">
+        <is>
+          <t>1191</t>
+        </is>
+      </c>
+      <c r="O10" s="16" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
       <c r="P10" s="35" t="n"/>
       <c r="Q10" s="15" t="n"/>
-      <c r="R10" s="15" t="n"/>
+      <c r="R10" s="15" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="13" customHeight="1">
       <c r="A11" s="14" t="n"/>
-      <c r="B11" s="14" t="n"/>
-      <c r="C11" s="14" t="n"/>
-      <c r="D11" s="14" t="n"/>
-      <c r="E11" s="14" t="n"/>
-      <c r="F11" s="19" t="n"/>
-      <c r="G11" s="26" t="n"/>
-      <c r="H11" s="14" t="n"/>
-      <c r="I11" s="18" t="n"/>
-      <c r="J11" s="27" t="n"/>
-      <c r="K11" s="21" t="n"/>
-      <c r="L11" s="14" t="n"/>
-      <c r="M11" s="14" t="n"/>
-      <c r="N11" s="14" t="n"/>
-      <c r="O11" s="14" t="n"/>
-      <c r="P11" s="34" t="n"/>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>Emerald</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>House Stark</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>51</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H11" s="14" t="n">
+        <v>58</v>
+      </c>
+      <c r="I11" s="18" t="n">
+        <v>61</v>
+      </c>
+      <c r="J11" s="27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K11" s="21" t="n">
+        <v>18</v>
+      </c>
+      <c r="L11" s="14" t="inlineStr">
+        <is>
+          <t>101012</t>
+        </is>
+      </c>
+      <c r="M11" s="14" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="N11" s="14" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="O11" s="14" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="P11" s="34" t="inlineStr">
+        <is>
+          <t>✖</t>
+        </is>
+      </c>
       <c r="Q11" s="34" t="n"/>
-      <c r="R11" s="35" t="n"/>
+      <c r="R11" s="35" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="13" customHeight="1">
       <c r="A12" s="14" t="n"/>
